--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="385">
   <si>
     <t>ID</t>
   </si>
@@ -713,9 +713,6 @@
     <t>Là món mì kéo tay truyền thống của Trung Quốc, nổi tiếng với sợi mì dài, dai và dẻo. Mì thường được dùng với nước dùng trong, thịt bò lát mỏng và rau xanh, mang hương vị thanh, đậm đà và đặc trưng của ẩm thực Lan Châu.</t>
   </si>
   <si>
-    <t>Mỳ kéo tay</t>
-  </si>
-  <si>
     <t>A traditional Chinese noodle dish famous for its long, chewy, and elastic noodles, hand-pulled to perfection. Served in a clear, flavorful beef broth with thinly sliced beef and fresh greens, this dish embodies the light yet rich taste of Lanzhou’s authentic culinary tradition.</t>
   </si>
   <si>
@@ -1102,9 +1099,6 @@
     <t>Dùng trong hành lý để khôi phục ngay 60 điểm thể lực.</t>
   </si>
   <si>
-    <t>Mỳ Râu Rồng</t>
-  </si>
-  <si>
     <t>Dùng trong hành lý để tăng cho toàn bộ đội {0} ST Bạo Kích trong 10 phút.</t>
   </si>
   <si>
@@ -1148,6 +1142,1016 @@
   </si>
   <si>
     <t>STR_DRAGON_BREAD_NOODIES_NAME</t>
+  </si>
+  <si>
+    <t>Mì kéo tay</t>
+  </si>
+  <si>
+    <t>Mì Râu Rồng</t>
+  </si>
+  <si>
+    <t>UI_OWNED</t>
+  </si>
+  <si>
+    <t>Owned:</t>
+  </si>
+  <si>
+    <t>Sở hữu:</t>
+  </si>
+  <si>
+    <t>UI_USE</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Dùng</t>
+  </si>
+  <si>
+    <t>UI_OBTAIN</t>
+  </si>
+  <si>
+    <t>Obtain</t>
+  </si>
+  <si>
+    <t>Nguồn</t>
+  </si>
+  <si>
+    <t>STR_GARNET_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_LAPIS_LAZULI_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_AMETHYST_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_YELLOW_JADE_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_TOPAZ_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_JADE_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_AQUAMARINE_GEMSTONE_NAME</t>
+  </si>
+  <si>
+    <t>STR_GARNET_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_LAPIS_LAZULI_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_AMETHYST_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_YELLOW_JADE_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_TOPAZ_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_JADE_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_AQUAMARINE_CHUNK_NAME</t>
+  </si>
+  <si>
+    <t>STR_GARNET_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_LAPIS_LAZULI_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_AMETHYST_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_YELLOW_JADE_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_TOPAZ_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_JADE_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_AQUAMARINE_FRAGMENT_NAME</t>
+  </si>
+  <si>
+    <t>STR_GARNET_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>STR_LAPIS_LAZULI_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>STR_AMETHYST_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>STR_YELLOW_JADE_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>STR_TOPAZ_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>STR_JADE_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>STR_AQUAMARINE_GEMSTONE_DES</t>
+  </si>
+  <si>
+    <t>Garnet Gemstone</t>
+  </si>
+  <si>
+    <t>Lapis Lazuli Gemstone</t>
+  </si>
+  <si>
+    <t>Amethyst Gemstone</t>
+  </si>
+  <si>
+    <t>Yellow Jade Gemstone</t>
+  </si>
+  <si>
+    <t>Topaz Gemstone</t>
+  </si>
+  <si>
+    <t>Jade Gemstone</t>
+  </si>
+  <si>
+    <t>Aquamarine Gemstone</t>
+  </si>
+  <si>
+    <t>Garnet Chunk</t>
+  </si>
+  <si>
+    <t>Lapis Lazuli Chunk</t>
+  </si>
+  <si>
+    <t>Amethyst Chunk</t>
+  </si>
+  <si>
+    <t>Yellow Jade Chunk</t>
+  </si>
+  <si>
+    <t>Topaz Chunk</t>
+  </si>
+  <si>
+    <t>Jade Chunk</t>
+  </si>
+  <si>
+    <t>Aquamarine Chunk</t>
+  </si>
+  <si>
+    <t>Garnet Fragment</t>
+  </si>
+  <si>
+    <t>Lapis Lazuli Fragment</t>
+  </si>
+  <si>
+    <t>Amethyst Fragment</t>
+  </si>
+  <si>
+    <t>Yellow Jade Fragment</t>
+  </si>
+  <si>
+    <t>Topaz Fragment</t>
+  </si>
+  <si>
+    <t>Jade Fragment</t>
+  </si>
+  <si>
+    <t>Aquamarine Fragment</t>
+  </si>
+  <si>
+    <t>Garnet Silver</t>
+  </si>
+  <si>
+    <t>Lapis Lazuli Silver</t>
+  </si>
+  <si>
+    <t>Amethyst Silver</t>
+  </si>
+  <si>
+    <t>Yellow Jade Silver</t>
+  </si>
+  <si>
+    <t>Topaz Silver</t>
+  </si>
+  <si>
+    <t>Jade Silver</t>
+  </si>
+  <si>
+    <t>Aquamarine Silver</t>
+  </si>
+  <si>
+    <t>STR_GARNET_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>STR_LAPIS_LAZULI_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>STR_AMETHYST_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>STR_YELLOW_JADE_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>STR_TOPAZ_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>STR_JADE_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>STR_AQUAMARINE_SLIVER_NAME</t>
+  </si>
+  <si>
+    <t>Hồng Ngọc Lựu</t>
+  </si>
+  <si>
+    <t>Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Ngọc Thạch Anh Tím</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc</t>
+  </si>
+  <si>
+    <t>Ngọc Lục Bảo</t>
+  </si>
+  <si>
+    <t>Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Hải Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Là viên đá quý có sắc đỏ thẫm như hạt lựu, tượng trưng cho sức sống, năng lượng và lòng dũng cảm, mang lại sự bảo vệ và may mắn cho người sở hữu.</t>
+  </si>
+  <si>
+    <t>A gemstone with a deep pomegranate-red hue, symbolizing vitality, energy, and courage, believed to bring protection and good fortune to its wearer.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là viên đá quý có sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xanh lam sâu thẳm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, thường điểm các </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tạp chất vàng hoặc trắng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Biểu tượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trí tuệ, sự trung thành và may mắn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, được coi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bảo vật của sự uy quyền và tinh thần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A gemstone with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>deep blue hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, often flecked with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gold or white inclusions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. It symbolizes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wisdom, loyalty, and good fortune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, regarded as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>treasure of authority and spirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là loại đá quý có sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tím huyền ảo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, biểu tượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trí tuệ, bình an và tâm hồn thanh tịnh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, giúp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xua tan căng thẳng và bảo vệ năng lượng tích cực</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A gemstone with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mystical purple hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, symbolizing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wisdom, peace, and spiritual clarity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, believed to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>relieve stress and protect positive energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là loại ngọc có sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vàng nhẹ hoặc vàng óng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, tượng trưng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>phú quý, may mắn và năng lượng tích cực</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, mang lại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ấm áp và thịnh vượng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cho người sở hữu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A gemstone with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>soft or golden-yellow hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, symbolizing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wealth, good fortune, and positive energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, bringing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>warmth and prosperity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to its wearer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là viên đá quý mang sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xanh lục sâu thẳm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, biểu tượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hy vọng, tái sinh và trí tuệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Được xem là viên ngọc của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hoàng gia và sự vĩnh cửu.</t>
+    </r>
+  </si>
+  <si>
+    <t>A precious gemstone with a deep green color, symbolizing hope, renewal, and wisdom. It is known as the gem of royalty and eternity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là loại ngọc quý có sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xanh lục trong hoặc mờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, biểu tượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cao quý, thanh khiết và may mắn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Trong văn hóa Á Đông, Ngọc Bích được xem là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>báu vật của trời đất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, tượng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A precious gemstone with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>translucent green hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, symbolizing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>purity, nobility, and good fortune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. In Eastern culture, jade is regarded as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>heavenly treasure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, representing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>virtue, harmony, and longevity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. trưng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>phẩm hạnh và sự trường tồn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là viên ngọc quý mang sắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xanh da trời trong như nước biển</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, tỏa ánh sáng dịu mát và thanh khiết. Hải Lam Ngọc tượng trưng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biển cả, sự bình an và tình yêu chân thành</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, được tin là mang lại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>may mắn, thanh tĩnh và bảo hộ cho người sở hữu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A precious gemstone with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clear sky-blue or sea-blue hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Aquamarine shimmers with a calm and pure light. It symbolizes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ocean, peace, and sincere love</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, and is believed to bring </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>luck, tranquility, and protection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to its wearer.</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_GEMSTONE_USEFUL</t>
+  </si>
+  <si>
+    <t>Vật phẩm này dùng để nâng cấp chỉ số cho nhân vật. Bạn có thể nhận nó thông qua đánh quái và làm nhiệm vụ.</t>
+  </si>
+  <si>
+    <t>This item is used to enhance your character's stats. You can get it by defeating monsters or completing quests.</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,6 +2837,39 @@
       </c>
       <c r="C30" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1895,17 +2932,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,7 +3404,7 @@
         <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,7 +3448,7 @@
         <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,7 +3456,7 @@
         <v>226</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
         <v>229</v>
@@ -2430,208 +3467,625 @@
         <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
         <v>288</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" t="s">
+        <v>329</v>
+      </c>
+      <c r="C70" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" t="str">
+        <f>"Khối Đá "&amp;C67</f>
+        <v>Khối Đá Hồng Ngọc Lựu</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>334</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75:C80" si="0">"Khối Đá "&amp;C68</f>
+        <v>Khối Đá Lam Ngọc</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>307</v>
+      </c>
+      <c r="B76" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="0"/>
+        <v>Khối Đá Ngọc Thạch Anh Tím</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" t="s">
+        <v>336</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="0"/>
+        <v>Khối Đá Hoàng Ngọc</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="0"/>
+        <v>Khối Đá Ngọc Lục Bảo</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="0"/>
+        <v>Khối Đá Ngọc Bích</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" t="s">
+        <v>339</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="0"/>
+        <v>Khối Đá Hải Lam Ngọc</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>312</v>
+      </c>
+      <c r="B81" t="s">
+        <v>340</v>
+      </c>
+      <c r="C81" t="str">
+        <f>"Mảnh "&amp;C67</f>
+        <v>Mảnh Hồng Ngọc Lựu</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>313</v>
+      </c>
+      <c r="B82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ref="C82:C87" si="1">"Mảnh "&amp;C68</f>
+        <v>Mảnh Lam Ngọc</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>Mảnh Ngọc Thạch Anh Tím</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>Mảnh Hoàng Ngọc</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" t="s">
+        <v>344</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>Mảnh Ngọc Lục Bảo</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>Mảnh Ngọc Bích</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>318</v>
+      </c>
+      <c r="B87" t="s">
+        <v>346</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>Mảnh Hải Lam Ngọc</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" t="s">
+        <v>347</v>
+      </c>
+      <c r="C88" t="str">
+        <f>"Mảnh vụn "&amp;C67</f>
+        <v>Mảnh vụn Hồng Ngọc Lựu</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>355</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" ref="C89:C94" si="2">"Mảnh vụn "&amp;C68</f>
+        <v>Mảnh vụn Lam Ngọc</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>Mảnh vụn Ngọc Thạch Anh Tím</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" t="s">
+        <v>350</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>Mảnh vụn Hoàng Ngọc</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" t="s">
+        <v>351</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>Mảnh vụn Ngọc Lục Bảo</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>359</v>
+      </c>
+      <c r="B93" t="s">
+        <v>352</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>Mảnh vụn Ngọc Bích</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>Mảnh vụn Hải Lam Ngọc</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+      <c r="C95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>321</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>323</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>325</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="406">
   <si>
     <t>ID</t>
   </si>
@@ -2152,6 +2152,69 @@
   </si>
   <si>
     <t>This item is used to enhance your character's stats. You can get it by defeating monsters or completing quests.</t>
+  </si>
+  <si>
+    <t>Khối Đá Hồng Ngọc Lựu</t>
+  </si>
+  <si>
+    <t>Khối Đá Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Khối Đá Ngọc Thạch Anh Tím</t>
+  </si>
+  <si>
+    <t>Khối Đá Hoàng Ngọc</t>
+  </si>
+  <si>
+    <t>Khối Đá Ngọc Lục Bảo</t>
+  </si>
+  <si>
+    <t>Khối Đá Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Khối Đá Hải Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Mảnh Hồng Ngọc Lựu</t>
+  </si>
+  <si>
+    <t>Mảnh Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Mảnh Ngọc Thạch Anh Tím</t>
+  </si>
+  <si>
+    <t>Mảnh Hoàng Ngọc</t>
+  </si>
+  <si>
+    <t>Mảnh Ngọc Lục Bảo</t>
+  </si>
+  <si>
+    <t>Mảnh Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Mảnh Hải Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Hồng Ngọc Lựu</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Lam Ngọc</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Ngọc Thạch Anh Tím</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Hoàng Ngọc</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Ngọc Lục Bảo</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Mảnh vụn Hải Lam Ngọc</t>
   </si>
 </sst>
 </file>
@@ -2934,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,9 +3818,8 @@
       <c r="B74" t="s">
         <v>333</v>
       </c>
-      <c r="C74" t="str">
-        <f>"Khối Đá "&amp;C67</f>
-        <v>Khối Đá Hồng Ngọc Lựu</v>
+      <c r="C74" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3767,9 +3829,8 @@
       <c r="B75" t="s">
         <v>334</v>
       </c>
-      <c r="C75" t="str">
-        <f t="shared" ref="C75:C80" si="0">"Khối Đá "&amp;C68</f>
-        <v>Khối Đá Lam Ngọc</v>
+      <c r="C75" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,9 +3840,8 @@
       <c r="B76" t="s">
         <v>335</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" si="0"/>
-        <v>Khối Đá Ngọc Thạch Anh Tím</v>
+      <c r="C76" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,9 +3851,8 @@
       <c r="B77" t="s">
         <v>336</v>
       </c>
-      <c r="C77" t="str">
-        <f t="shared" si="0"/>
-        <v>Khối Đá Hoàng Ngọc</v>
+      <c r="C77" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,9 +3862,8 @@
       <c r="B78" t="s">
         <v>337</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="0"/>
-        <v>Khối Đá Ngọc Lục Bảo</v>
+      <c r="C78" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,9 +3873,8 @@
       <c r="B79" t="s">
         <v>338</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="0"/>
-        <v>Khối Đá Ngọc Bích</v>
+      <c r="C79" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,9 +3884,8 @@
       <c r="B80" t="s">
         <v>339</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="0"/>
-        <v>Khối Đá Hải Lam Ngọc</v>
+      <c r="C80" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3839,9 +3895,8 @@
       <c r="B81" t="s">
         <v>340</v>
       </c>
-      <c r="C81" t="str">
-        <f>"Mảnh "&amp;C67</f>
-        <v>Mảnh Hồng Ngọc Lựu</v>
+      <c r="C81" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3851,9 +3906,8 @@
       <c r="B82" t="s">
         <v>341</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" ref="C82:C87" si="1">"Mảnh "&amp;C68</f>
-        <v>Mảnh Lam Ngọc</v>
+      <c r="C82" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,9 +3917,8 @@
       <c r="B83" t="s">
         <v>342</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="1"/>
-        <v>Mảnh Ngọc Thạch Anh Tím</v>
+      <c r="C83" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3875,9 +3928,8 @@
       <c r="B84" t="s">
         <v>343</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="1"/>
-        <v>Mảnh Hoàng Ngọc</v>
+      <c r="C84" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3887,9 +3939,8 @@
       <c r="B85" t="s">
         <v>344</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="1"/>
-        <v>Mảnh Ngọc Lục Bảo</v>
+      <c r="C85" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3899,9 +3950,8 @@
       <c r="B86" t="s">
         <v>345</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="1"/>
-        <v>Mảnh Ngọc Bích</v>
+      <c r="C86" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,9 +3961,8 @@
       <c r="B87" t="s">
         <v>346</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="1"/>
-        <v>Mảnh Hải Lam Ngọc</v>
+      <c r="C87" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,9 +3972,8 @@
       <c r="B88" t="s">
         <v>347</v>
       </c>
-      <c r="C88" t="str">
-        <f>"Mảnh vụn "&amp;C67</f>
-        <v>Mảnh vụn Hồng Ngọc Lựu</v>
+      <c r="C88" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,9 +3983,8 @@
       <c r="B89" t="s">
         <v>348</v>
       </c>
-      <c r="C89" t="str">
-        <f t="shared" ref="C89:C94" si="2">"Mảnh vụn "&amp;C68</f>
-        <v>Mảnh vụn Lam Ngọc</v>
+      <c r="C89" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,9 +3994,8 @@
       <c r="B90" t="s">
         <v>349</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="2"/>
-        <v>Mảnh vụn Ngọc Thạch Anh Tím</v>
+      <c r="C90" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,9 +4005,8 @@
       <c r="B91" t="s">
         <v>350</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="2"/>
-        <v>Mảnh vụn Hoàng Ngọc</v>
+      <c r="C91" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3971,9 +4016,8 @@
       <c r="B92" t="s">
         <v>351</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="2"/>
-        <v>Mảnh vụn Ngọc Lục Bảo</v>
+      <c r="C92" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3983,9 +4027,8 @@
       <c r="B93" t="s">
         <v>352</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="2"/>
-        <v>Mảnh vụn Ngọc Bích</v>
+      <c r="C93" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3995,9 +4038,8 @@
       <c r="B94" t="s">
         <v>353</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="2"/>
-        <v>Mảnh vụn Hải Lam Ngọc</v>
+      <c r="C94" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="482">
   <si>
     <t>ID</t>
   </si>
@@ -2215,6 +2215,234 @@
   </si>
   <si>
     <t>Mảnh vụn Hải Lam Ngọc</t>
+  </si>
+  <si>
+    <t>STR_HP</t>
+  </si>
+  <si>
+    <t>STR_DEF</t>
+  </si>
+  <si>
+    <t>Phòng thủ</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>STR_ATK</t>
+  </si>
+  <si>
+    <t>Tấn công</t>
+  </si>
+  <si>
+    <t>STR_CRIT</t>
+  </si>
+  <si>
+    <t>Critical Chance</t>
+  </si>
+  <si>
+    <t>Tỉ lệ Bạo Kích</t>
+  </si>
+  <si>
+    <t>STR_CRIT_DMG</t>
+  </si>
+  <si>
+    <t>Critical Damage</t>
+  </si>
+  <si>
+    <t>Sát thương Bạo Kích</t>
+  </si>
+  <si>
+    <t>STR_SPD</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Tốc độ</t>
+  </si>
+  <si>
+    <t>STR_ARM_PEN</t>
+  </si>
+  <si>
+    <t>Armor Penetration</t>
+  </si>
+  <si>
+    <t>Khả năng xuyên giáp</t>
+  </si>
+  <si>
+    <t>STR_ACC</t>
+  </si>
+  <si>
+    <t>Effect Accuracy</t>
+  </si>
+  <si>
+    <t>Hiệu ứng chính xác</t>
+  </si>
+  <si>
+    <t>Hồng Vân Tịnh Đới</t>
+  </si>
+  <si>
+    <t>Red Celestial Girdle</t>
+  </si>
+  <si>
+    <t>Quan Thiên Cương</t>
+  </si>
+  <si>
+    <t>Celestial Vanguard</t>
+  </si>
+  <si>
+    <t>Trọng Sơn Trấn Nhạc</t>
+  </si>
+  <si>
+    <t>Kim Vũ Long Lân Khải</t>
+  </si>
+  <si>
+    <t>Golden Dragon-Scale</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_01</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_02</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_03</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_05</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_04</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_06</t>
+  </si>
+  <si>
+    <t>Viêm Ngưu Thần Khải</t>
+  </si>
+  <si>
+    <t>Inferno Minotaur Divine</t>
+  </si>
+  <si>
+    <t>Mountain-Subduing</t>
+  </si>
+  <si>
+    <t>Hoàng Kim Nữ Vương Giáp</t>
+  </si>
+  <si>
+    <t>Golden Empress</t>
+  </si>
+  <si>
+    <t>STR_HELMET</t>
+  </si>
+  <si>
+    <t>Crow</t>
+  </si>
+  <si>
+    <t>Mũ</t>
+  </si>
+  <si>
+    <t>STR_CHESTPLATE</t>
+  </si>
+  <si>
+    <t>Body Armor</t>
+  </si>
+  <si>
+    <t>Giáp ngực</t>
+  </si>
+  <si>
+    <t>STR_GLOVES</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Găng tay</t>
+  </si>
+  <si>
+    <t>STR_BOOTS</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Giầy</t>
+  </si>
+  <si>
+    <t>STR_BELT</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Đai lưng</t>
+  </si>
+  <si>
+    <t>STR_RING</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Nhẫn</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Supreme</t>
+  </si>
+  <si>
+    <t>thường</t>
+  </si>
+  <si>
+    <t>quý</t>
+  </si>
+  <si>
+    <t>tốt</t>
+  </si>
+  <si>
+    <t>cực phẩm</t>
+  </si>
+  <si>
+    <t>tuyệt phẩm</t>
+  </si>
+  <si>
+    <t>STR_COMMON_ARMOR</t>
+  </si>
+  <si>
+    <t>STR_EPIC_ARMOR</t>
+  </si>
+  <si>
+    <t>STR_UNCOMMON_ARMOR</t>
+  </si>
+  <si>
+    <t>STR_RARE_ARMOR</t>
+  </si>
+  <si>
+    <t>STR_LEGENDARY_ARMOR</t>
+  </si>
+  <si>
+    <t>Increases HP by {0}% for character.</t>
+  </si>
+  <si>
+    <t>Tăng {0}% Máu của nhân vật.</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_SET_DES</t>
   </si>
 </sst>
 </file>
@@ -2995,16 +3223,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3013,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4128,6 +4356,292 @@
       </c>
       <c r="C102" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>406</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>410</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>412</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>415</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>425</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>435</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>436</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>437</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C114" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>438</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>440</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>446</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>449</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>452</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>455</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>458</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>461</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>474</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>477</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>475</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>478</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>481</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="599">
   <si>
     <t>ID</t>
   </si>
@@ -2238,9 +2238,6 @@
     <t>STR_CRIT</t>
   </si>
   <si>
-    <t>Critical Chance</t>
-  </si>
-  <si>
     <t>Tỉ lệ Bạo Kích</t>
   </si>
   <si>
@@ -2256,30 +2253,15 @@
     <t>STR_SPD</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
     <t>Tốc độ</t>
   </si>
   <si>
-    <t>STR_ARM_PEN</t>
-  </si>
-  <si>
-    <t>Armor Penetration</t>
-  </si>
-  <si>
     <t>Khả năng xuyên giáp</t>
   </si>
   <si>
-    <t>STR_ACC</t>
-  </si>
-  <si>
-    <t>Effect Accuracy</t>
-  </si>
-  <si>
     <t>Hiệu ứng chính xác</t>
   </si>
   <si>
@@ -2443,6 +2425,375 @@
   </si>
   <si>
     <t>STR_ARMOR_SET_DES</t>
+  </si>
+  <si>
+    <t>STR_SUN_WUKONG</t>
+  </si>
+  <si>
+    <t>STR_TANG_SANZANG</t>
+  </si>
+  <si>
+    <t>STR_ZHU_BAIJE</t>
+  </si>
+  <si>
+    <t>STR_SHA_WUJING</t>
+  </si>
+  <si>
+    <t>Sun Wukong</t>
+  </si>
+  <si>
+    <t>Tang Sanzang</t>
+  </si>
+  <si>
+    <t>Sha Wujing</t>
+  </si>
+  <si>
+    <t>Zhu Bajie</t>
+  </si>
+  <si>
+    <t>Tôn Ngộ Không</t>
+  </si>
+  <si>
+    <t>Đường Tăng</t>
+  </si>
+  <si>
+    <t>Trư Bát Giới</t>
+  </si>
+  <si>
+    <t>Sa Tăng</t>
+  </si>
+  <si>
+    <t>STR_SHARD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Vật liệu cần thiết để đột phá {0} . Thu thập đủ {1} Tinh Phách có thể ghép thành {0}.</t>
+  </si>
+  <si>
+    <t>The primary material needed to help {0} Ascension. Collect {1} to fuse for {0}.</t>
+  </si>
+  <si>
+    <t>STR_SHARD_NAME</t>
+  </si>
+  <si>
+    <t>Esence</t>
+  </si>
+  <si>
+    <t>Tinh Phách</t>
+  </si>
+  <si>
+    <t>STR_DRAGON_KING_EATERN_SEA</t>
+  </si>
+  <si>
+    <t>Dragon King of the Eastern Sea</t>
+  </si>
+  <si>
+    <t>Đông Hải Long Vương</t>
+  </si>
+  <si>
+    <t>STR_THIRD_PRINCE_NEZHA</t>
+  </si>
+  <si>
+    <t>Third Prince Nezha</t>
+  </si>
+  <si>
+    <t>Tam Thái Tử Na Tra</t>
+  </si>
+  <si>
+    <t>Bull Demon King</t>
+  </si>
+  <si>
+    <t>Ngưu Ma Vương</t>
+  </si>
+  <si>
+    <t>STR_BULL_DEMON_KING</t>
+  </si>
+  <si>
+    <t>STR_ERLANG_SHEN_YANG_JIAN</t>
+  </si>
+  <si>
+    <t>Erlang Shen Yang Jian</t>
+  </si>
+  <si>
+    <t>Nhị Lang Thần Dương Tiễn</t>
+  </si>
+  <si>
+    <t>STR_LITTLE_WHITE_DRAGON</t>
+  </si>
+  <si>
+    <t>Little White Dragon</t>
+  </si>
+  <si>
+    <t>Tiểu Bạch Long</t>
+  </si>
+  <si>
+    <t>STR_GUANYIN_BODHISATTVA</t>
+  </si>
+  <si>
+    <t>Guanyin Bodhisattva</t>
+  </si>
+  <si>
+    <t>Quan Thế Âm Bồ Tát</t>
+  </si>
+  <si>
+    <t>UI_ASCEND</t>
+  </si>
+  <si>
+    <t>Ascend</t>
+  </si>
+  <si>
+    <t>Đột phá</t>
+  </si>
+  <si>
+    <t>UI_CULTIVATE</t>
+  </si>
+  <si>
+    <t>Cultivate</t>
+  </si>
+  <si>
+    <t>Tu luyện</t>
+  </si>
+  <si>
+    <t>Effect Hit</t>
+  </si>
+  <si>
+    <t>Defense Shred</t>
+  </si>
+  <si>
+    <t>Critical Rate</t>
+  </si>
+  <si>
+    <t>STR_DEF_SHRED</t>
+  </si>
+  <si>
+    <t>STR_EFF_HIT</t>
+  </si>
+  <si>
+    <t>STR_EFF_RES</t>
+  </si>
+  <si>
+    <t>Effect Resistance</t>
+  </si>
+  <si>
+    <t>Kháng hiệu ứng</t>
+  </si>
+  <si>
+    <t>UI_COST</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>UI_ADVANCEMENT</t>
+  </si>
+  <si>
+    <t>Advancement</t>
+  </si>
+  <si>
+    <t>Thăng cấp</t>
+  </si>
+  <si>
+    <t>UI_ATK</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>UI_DEF</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>UI_SPD</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>UI_ASSITS_RATE</t>
+  </si>
+  <si>
+    <t>Assist Rate</t>
+  </si>
+  <si>
+    <t>UI_CRIT_RATE</t>
+  </si>
+  <si>
+    <t>CRIT Rate</t>
+  </si>
+  <si>
+    <t>UI_CRIT_DMG</t>
+  </si>
+  <si>
+    <t>CRIT DMG</t>
+  </si>
+  <si>
+    <t>UI_EFFECT_HIT</t>
+  </si>
+  <si>
+    <t>UI_EFFECT_RES</t>
+  </si>
+  <si>
+    <t>Feffect Res</t>
+  </si>
+  <si>
+    <t>UI_QUICK_UNEQUIP</t>
+  </si>
+  <si>
+    <t>UI_QUICK_EQUIP</t>
+  </si>
+  <si>
+    <t>Quick UnEquip</t>
+  </si>
+  <si>
+    <t>Quick Equip</t>
+  </si>
+  <si>
+    <t>UI_CHANGE</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>UI_ENHANCE</t>
+  </si>
+  <si>
+    <t>Enhance</t>
+  </si>
+  <si>
+    <t>Cường Hóa</t>
+  </si>
+  <si>
+    <t>Đổi</t>
+  </si>
+  <si>
+    <t>Mặc nhanh</t>
+  </si>
+  <si>
+    <t>Gỡ nhanh</t>
+  </si>
+  <si>
+    <t>ST Bạo kích</t>
+  </si>
+  <si>
+    <t>Tỉ lệ bạo kích</t>
+  </si>
+  <si>
+    <t>Tỉ lệ hỗ trợ</t>
+  </si>
+  <si>
+    <t>UI_BATTLE_POWER</t>
+  </si>
+  <si>
+    <t>Battle Power</t>
+  </si>
+  <si>
+    <t>Chiến Lực</t>
+  </si>
+  <si>
+    <t>UI_FATE</t>
+  </si>
+  <si>
+    <t>Fate</t>
+  </si>
+  <si>
+    <t>Bản Mệnh</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Hướng dẫn</t>
+  </si>
+  <si>
+    <t>STR_CRIT_RATE</t>
+  </si>
+  <si>
+    <t>Crittle Rate</t>
+  </si>
+  <si>
+    <t>STR_COMMON_EXP</t>
+  </si>
+  <si>
+    <t>STR_FINE_EXP</t>
+  </si>
+  <si>
+    <t>STR_RARE_EXP</t>
+  </si>
+  <si>
+    <t>STR_SUPREME_EXP</t>
+  </si>
+  <si>
+    <t>Common EXP Pill</t>
+  </si>
+  <si>
+    <t>Fine EXP Pill</t>
+  </si>
+  <si>
+    <t>Rare EXP Gourd</t>
+  </si>
+  <si>
+    <t>Supreme EXP Gourd</t>
+  </si>
+  <si>
+    <t>STR_EXP_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Can be used in Character Cultivate to increase Character EXP by {0}.</t>
+  </si>
+  <si>
+    <t>STR_EXP_USEFUL</t>
+  </si>
+  <si>
+    <t>An immortal elixir forged by the Grand Supreme Elder Lord within the Eight Trigrams Furnace. It absorbs the essence of heaven and earth, granting eternal life and advancing in cultivation.</t>
+  </si>
+  <si>
+    <t>Dùng trong Tu Luyện Nhân Vật, tăng {0} điểm EXP nhân vật.</t>
+  </si>
+  <si>
+    <t>Thuốc EXP hạ phẩm</t>
+  </si>
+  <si>
+    <t>Thuốc EXP trung phẩm</t>
+  </si>
+  <si>
+    <t>Bình EXP thượng phẩm</t>
+  </si>
+  <si>
+    <t>Bình EXP tuyệt phẩm</t>
+  </si>
+  <si>
+    <t>Một loại tiên dược do Thái Thượng Lão Quân luyện thành trong lò Bát Quái, hấp thu tinh hoa của trời đất, ban cho trường sinh bất lão, tăng tiến tu vi.</t>
+  </si>
+  <si>
+    <t>UI_PENETRATION</t>
+  </si>
+  <si>
+    <t>Pennetration</t>
+  </si>
+  <si>
+    <t>Xuyên giáp</t>
+  </si>
+  <si>
+    <t>UI_CRITDMG_RES</t>
+  </si>
+  <si>
+    <t>Crit DMG Res</t>
+  </si>
+  <si>
+    <t>Kháng ST bạo kích</t>
+  </si>
+  <si>
+    <t>STR_MAX_LEVEL</t>
+  </si>
+  <si>
+    <t>Max level</t>
+  </si>
+  <si>
+    <t>Cấp độ tối đa</t>
   </si>
 </sst>
 </file>
@@ -2787,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,6 +3512,248 @@
       </c>
       <c r="C33" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>512</v>
+      </c>
+      <c r="B34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" t="s">
+        <v>527</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37" t="s">
+        <v>529</v>
+      </c>
+      <c r="C37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>531</v>
+      </c>
+      <c r="B39" t="s">
+        <v>532</v>
+      </c>
+      <c r="C39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>533</v>
+      </c>
+      <c r="B40" t="s">
+        <v>534</v>
+      </c>
+      <c r="C40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>535</v>
+      </c>
+      <c r="B41" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>537</v>
+      </c>
+      <c r="B42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>539</v>
+      </c>
+      <c r="B43" t="s">
+        <v>540</v>
+      </c>
+      <c r="C43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>541</v>
+      </c>
+      <c r="B44" t="s">
+        <v>542</v>
+      </c>
+      <c r="C44" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>544</v>
+      </c>
+      <c r="B46" t="s">
+        <v>545</v>
+      </c>
+      <c r="C46" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>546</v>
+      </c>
+      <c r="B47" t="s">
+        <v>548</v>
+      </c>
+      <c r="C47" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>547</v>
+      </c>
+      <c r="B48" t="s">
+        <v>549</v>
+      </c>
+      <c r="C48" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>550</v>
+      </c>
+      <c r="B49" t="s">
+        <v>551</v>
+      </c>
+      <c r="C49" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>552</v>
+      </c>
+      <c r="B50" t="s">
+        <v>553</v>
+      </c>
+      <c r="C50" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>561</v>
+      </c>
+      <c r="B51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>564</v>
+      </c>
+      <c r="B52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C52" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53" t="s">
+        <v>568</v>
+      </c>
+      <c r="C53" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>590</v>
+      </c>
+      <c r="B54" t="s">
+        <v>591</v>
+      </c>
+      <c r="C54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>593</v>
+      </c>
+      <c r="B55" t="s">
+        <v>594</v>
+      </c>
+      <c r="C55" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -3223,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4396,252 +4989,483 @@
         <v>412</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>417</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="C108" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>422</v>
+        <v>521</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>425</v>
+        <v>522</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>435</v>
+        <v>523</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>434</v>
+        <v>524</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C114" t="s">
-        <v>441</v>
+        <v>425</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>432</v>
+        <v>436</v>
+      </c>
+      <c r="C115" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>475</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>476</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>477</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C131" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>478</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C132" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>479</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>480</v>
+      <c r="B133" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C133" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>488</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>491</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>494</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>497</v>
+      </c>
+      <c r="B137" t="s">
+        <v>498</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>502</v>
+      </c>
+      <c r="B138" t="s">
+        <v>500</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>503</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C139" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>506</v>
+      </c>
+      <c r="B140" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>509</v>
+      </c>
+      <c r="B141" t="s">
+        <v>510</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>570</v>
+      </c>
+      <c r="B142" t="s">
+        <v>571</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>572</v>
+      </c>
+      <c r="B143" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>573</v>
+      </c>
+      <c r="B144" t="s">
+        <v>577</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>574</v>
+      </c>
+      <c r="B145" t="s">
+        <v>578</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>575</v>
+      </c>
+      <c r="B146" t="s">
+        <v>579</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>582</v>
+      </c>
+      <c r="B147" t="s">
+        <v>581</v>
+      </c>
+      <c r="C147" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>580</v>
+      </c>
+      <c r="B148" t="s">
+        <v>583</v>
+      </c>
+      <c r="C148" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>596</v>
+      </c>
+      <c r="B149" t="s">
+        <v>597</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="612">
   <si>
     <t>ID</t>
   </si>
@@ -2794,6 +2794,45 @@
   </si>
   <si>
     <t>Cấp độ tối đa</t>
+  </si>
+  <si>
+    <t>UI_UPGRADE_LEVEL</t>
+  </si>
+  <si>
+    <t>Tăng cấp</t>
+  </si>
+  <si>
+    <t>UI_UPGRADE_MAX_LEVEL</t>
+  </si>
+  <si>
+    <t>Upgrade to Lv.10</t>
+  </si>
+  <si>
+    <t>Tăng tới cấp 10</t>
+  </si>
+  <si>
+    <t>UI_DEF_SHRED</t>
+  </si>
+  <si>
+    <t>DEF Shred</t>
+  </si>
+  <si>
+    <t>Khả năng giảm giáp</t>
+  </si>
+  <si>
+    <t>UI_SKILLS</t>
+  </si>
+  <si>
+    <t>Kĩ năng</t>
+  </si>
+  <si>
+    <t>UI_WEAPON_EMPTY</t>
+  </si>
+  <si>
+    <t>No Relic equipped. Please go to change it.</t>
+  </si>
+  <si>
+    <t>Chưa trang bị Pháp Bảo, vui lòng đến để thay đổi.</t>
   </si>
 </sst>
 </file>
@@ -3138,10 +3177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,6 +3793,61 @@
       </c>
       <c r="C55" t="s">
         <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>599</v>
+      </c>
+      <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>601</v>
+      </c>
+      <c r="B57" t="s">
+        <v>602</v>
+      </c>
+      <c r="C57" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>604</v>
+      </c>
+      <c r="B58" t="s">
+        <v>605</v>
+      </c>
+      <c r="C58" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>607</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>609</v>
+      </c>
+      <c r="B60" t="s">
+        <v>610</v>
+      </c>
+      <c r="C60" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="618">
   <si>
     <t>ID</t>
   </si>
@@ -2833,6 +2833,24 @@
   </si>
   <si>
     <t>Chưa trang bị Pháp Bảo, vui lòng đến để thay đổi.</t>
+  </si>
+  <si>
+    <t>Gỡ</t>
+  </si>
+  <si>
+    <t>UnEquip</t>
+  </si>
+  <si>
+    <t>UI_UNEQUIP</t>
+  </si>
+  <si>
+    <t>Tiêu hao</t>
+  </si>
+  <si>
+    <t>UI_ENCHANCE</t>
+  </si>
+  <si>
+    <t>Enchance</t>
   </si>
 </sst>
 </file>
@@ -3177,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,7 +3601,7 @@
         <v>527</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,6 +3866,28 @@
       </c>
       <c r="C60" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>614</v>
+      </c>
+      <c r="B61" t="s">
+        <v>613</v>
+      </c>
+      <c r="C61" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62" t="s">
+        <v>617</v>
+      </c>
+      <c r="C62" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +3952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="621">
   <si>
     <t>ID</t>
   </si>
@@ -2851,6 +2851,15 @@
   </si>
   <si>
     <t>Enchance</t>
+  </si>
+  <si>
+    <t>UI_EQUIP</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>Mặc</t>
   </si>
 </sst>
 </file>
@@ -3195,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3888,6 +3897,17 @@
       </c>
       <c r="C62" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>618</v>
+      </c>
+      <c r="B63" t="s">
+        <v>619</v>
+      </c>
+      <c r="C63" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -3952,7 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="670">
   <si>
     <t>ID</t>
   </si>
@@ -2860,6 +2860,153 @@
   </si>
   <si>
     <t>Mặc</t>
+  </si>
+  <si>
+    <t>STR_PENETRATION</t>
+  </si>
+  <si>
+    <t>Penetration</t>
+  </si>
+  <si>
+    <t>STR_CRIT_DMG_RES</t>
+  </si>
+  <si>
+    <t>STR_ENGLISH</t>
+  </si>
+  <si>
+    <t>Tiếng Anh</t>
+  </si>
+  <si>
+    <t>STR_VIETNAMESE</t>
+  </si>
+  <si>
+    <t>STR_COIN</t>
+  </si>
+  <si>
+    <t>STR_RELIC_ESSENCE</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_PRIMORITE</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Relic Essence</t>
+  </si>
+  <si>
+    <t>Armor primorite</t>
+  </si>
+  <si>
+    <t>STR_COIN_DES</t>
+  </si>
+  <si>
+    <t>STR_RELIC_ESSENCE_DES</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_PRIMORITE_DES</t>
+  </si>
+  <si>
+    <t>STR_JADE_DES</t>
+  </si>
+  <si>
+    <t>STR_JADE</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>its's the unified currency issued by the Tang Empire, eccepted everywhere in Earth importal Reaml.</t>
+  </si>
+  <si>
+    <t>Fashioned from jade, this currency circulates among immortals, buddhas, and even demons.</t>
+  </si>
+  <si>
+    <t>Ores that contain abundant spiritual energy. Infused with divine power in tis core, the ore's surface is permeated with spiritual energy.</t>
+  </si>
+  <si>
+    <t>Crystals that contain abundant spiritual energy.\n Overflowing with spiritual energy, the crystal is forged into solidity by celestial artisans with divine flame.</t>
+  </si>
+  <si>
+    <t>STR_COIN_USE</t>
+  </si>
+  <si>
+    <t>STR_JADE_USE</t>
+  </si>
+  <si>
+    <t>STR_RELIC_ESSENCE_USE</t>
+  </si>
+  <si>
+    <t>STR_ARMOR_PRIMORITE_USE</t>
+  </si>
+  <si>
+    <t>Used for armor enhancement.</t>
+  </si>
+  <si>
+    <t>The most commonly used currency.</t>
+  </si>
+  <si>
+    <t>Used for Relic level-up.</t>
+  </si>
+  <si>
+    <t>A special currency circulation arcoss the Three Realms.</t>
+  </si>
+  <si>
+    <t>UI_SELECT_ENHANCE</t>
+  </si>
+  <si>
+    <t>Select Enhancement Materials</t>
+  </si>
+  <si>
+    <t>UI_RECYCLE</t>
+  </si>
+  <si>
+    <t>UI_TARGET_LEVEL</t>
+  </si>
+  <si>
+    <t>Target Level</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>UI_ENHANCE_ARMOR</t>
+  </si>
+  <si>
+    <t>Enhance Armor</t>
+  </si>
+  <si>
+    <t>Tiên Ngọc</t>
+  </si>
+  <si>
+    <t>Khắc ngọc thành tiên, viếng thăm thần tiên, gõ cửa phật môn, để vào yêu đạo.</t>
+  </si>
+  <si>
+    <t>Đồng tiền thống nhất do nhà Đường phát hành có thể lưu thông ở Tiên Giới.</t>
+  </si>
+  <si>
+    <t>Loại tiền đặc biệt được lưu thông ở Tam Giới.</t>
+  </si>
+  <si>
+    <t>Thông Bảo</t>
+  </si>
+  <si>
+    <t>Đá quặng chúa nhiều linh khí.\n Kim loại thần thông, linh hồn xuyên qua bề mặt đến từng chi tiết.</t>
+  </si>
+  <si>
+    <t>Nguyên Uẩn Pháp Bảo</t>
+  </si>
+  <si>
+    <t>Nguyên Uẩn Trang Bị</t>
+  </si>
+  <si>
+    <t>Thạch anh chứa nhiều linh khí.\n Đá thô tràn trề linh khí, được thợ tiên điêu khắc, đốt cháy bằng lừa linh hồn, đông cứng thành pha lê.</t>
+  </si>
+  <si>
+    <t>Dùng để cường hóa trang bị.</t>
+  </si>
+  <si>
+    <t>Dùng để cường hóa pháp bảo.</t>
   </si>
 </sst>
 </file>
@@ -3204,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,6 +4055,38 @@
       </c>
       <c r="C63" t="s">
         <v>620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>651</v>
+      </c>
+      <c r="B64" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>653</v>
+      </c>
+      <c r="B65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>654</v>
+      </c>
+      <c r="B66" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>657</v>
+      </c>
+      <c r="B67" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -3970,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5622,6 +5801,179 @@
         <v>598</v>
       </c>
     </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>621</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>623</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>624</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>626</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>627</v>
+      </c>
+      <c r="B154" t="s">
+        <v>630</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>637</v>
+      </c>
+      <c r="B155" t="s">
+        <v>638</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>628</v>
+      </c>
+      <c r="B156" t="s">
+        <v>631</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>629</v>
+      </c>
+      <c r="B157" t="s">
+        <v>632</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>633</v>
+      </c>
+      <c r="B158" t="s">
+        <v>639</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>636</v>
+      </c>
+      <c r="B159" t="s">
+        <v>640</v>
+      </c>
+      <c r="C159" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>634</v>
+      </c>
+      <c r="B160" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>635</v>
+      </c>
+      <c r="B161" t="s">
+        <v>642</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>643</v>
+      </c>
+      <c r="B162" t="s">
+        <v>648</v>
+      </c>
+      <c r="C162" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>644</v>
+      </c>
+      <c r="B163" t="s">
+        <v>650</v>
+      </c>
+      <c r="C163" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>645</v>
+      </c>
+      <c r="B164" t="s">
+        <v>649</v>
+      </c>
+      <c r="C164" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>646</v>
+      </c>
+      <c r="B165" t="s">
+        <v>647</v>
+      </c>
+      <c r="C165" t="s">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="671">
   <si>
     <t>ID</t>
   </si>
@@ -3007,6 +3007,9 @@
   </si>
   <si>
     <t>Dùng để cường hóa pháp bảo.</t>
+  </si>
+  <si>
+    <t>STR_LANGUAGE</t>
   </si>
 </sst>
 </file>
@@ -4149,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,6 +5977,17 @@
         <v>668</v>
       </c>
     </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>670</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="683">
   <si>
     <t>ID</t>
   </si>
@@ -113,24 +113,6 @@
     <t>Thông tin</t>
   </si>
   <si>
-    <t>CHAP01_NPC01_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greetings, Great Sage </t>
-  </si>
-  <si>
-    <t>My gratitude, venerable one!</t>
-  </si>
-  <si>
-    <t>CHAP01_NPC01_02</t>
-  </si>
-  <si>
-    <t>Xin chào đại thánh.</t>
-  </si>
-  <si>
-    <t>Cảm ơn ngài!</t>
-  </si>
-  <si>
     <t>Tiếng Việt</t>
   </si>
   <si>
@@ -2454,15 +2436,9 @@
     <t>Tôn Ngộ Không</t>
   </si>
   <si>
-    <t>Đường Tăng</t>
-  </si>
-  <si>
     <t>Trư Bát Giới</t>
   </si>
   <si>
-    <t>Sa Tăng</t>
-  </si>
-  <si>
     <t>STR_SHARD_DESCRIPTION</t>
   </si>
   <si>
@@ -3010,6 +2986,66 @@
   </si>
   <si>
     <t>STR_LANGUAGE</t>
+  </si>
+  <si>
+    <t>STR_JADE_EMPEROR</t>
+  </si>
+  <si>
+    <t>Jade Emperor</t>
+  </si>
+  <si>
+    <t>Ngọc Hoàng</t>
+  </si>
+  <si>
+    <t>STR_BODHI_PATRIARCH</t>
+  </si>
+  <si>
+    <t>Bodhi Patriarch</t>
+  </si>
+  <si>
+    <t>STR_TAIBAI_JINXING</t>
+  </si>
+  <si>
+    <t>Taibai Jinxing</t>
+  </si>
+  <si>
+    <t>Bồ Đề Tổ Sư</t>
+  </si>
+  <si>
+    <t>Thái Bạch Kim Tinh</t>
+  </si>
+  <si>
+    <t>Taishang Laojun</t>
+  </si>
+  <si>
+    <t>STR_TAISHANG_LAOJUN</t>
+  </si>
+  <si>
+    <t>Thái Thượng Lão Quân</t>
+  </si>
+  <si>
+    <t>Sa Ngộ Tĩnh</t>
+  </si>
+  <si>
+    <t>Đường Tăng Tạ</t>
+  </si>
+  <si>
+    <t>Phật Tổ Như Lai</t>
+  </si>
+  <si>
+    <t>Tathāgata Buddha</t>
+  </si>
+  <si>
+    <t>STR_SHAKYAMUNI_BUDDHA</t>
+  </si>
+  <si>
+    <t>STR_YANLUA_WANG</t>
+  </si>
+  <si>
+    <t>Yama, the King of Hell</t>
+  </si>
+  <si>
+    <t>Giêm La Vương</t>
   </si>
 </sst>
 </file>
@@ -3479,617 +3515,617 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B34" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C34" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B35" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C35" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B36" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C36" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B37" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C37" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B40" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C40" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B41" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C42" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B43" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C43" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B44" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C44" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B45" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B46" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C46" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B47" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C47" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B48" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C48" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B49" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C49" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B50" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C50" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B51" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C51" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B52" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C52" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B53" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C53" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B54" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C54" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B55" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C55" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B57" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C57" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B58" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C58" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B60" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C60" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B61" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C61" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B62" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C62" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B63" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C63" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B64" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B65" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B66" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B67" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -4099,15 +4135,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
@@ -4125,24 +4161,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>663</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>664</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -4154,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,1808 +4258,1808 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
         <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" t="s">
         <v>251</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C68" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C72" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C73" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C74" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C75" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C76" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C78" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C81" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C82" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C85" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C89" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C90" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C91" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C93" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B102" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C115" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>485</v>
+        <v>676</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C133" t="s">
-        <v>487</v>
+        <v>675</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B137" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B138" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B140" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B141" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B142" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B143" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B144" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B145" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B146" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B147" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C147" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B148" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C148" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B149" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B155" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B156" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B157" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B158" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B159" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C159" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B160" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B161" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B162" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C162" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B163" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C163" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B164" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C164" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B165" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C165" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="726">
   <si>
     <t>ID</t>
   </si>
@@ -3046,6 +3046,135 @@
   </si>
   <si>
     <t>Giêm La Vương</t>
+  </si>
+  <si>
+    <t>STR_L1_Thanks</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>Cảm ơn.</t>
+  </si>
+  <si>
+    <t>STR_L1_Welcom</t>
+  </si>
+  <si>
+    <t>You are welcome!</t>
+  </si>
+  <si>
+    <t>STR_L1_No</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Không.</t>
+  </si>
+  <si>
+    <t>Không có chi.</t>
+  </si>
+  <si>
+    <t>STR_L1_Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Vâng</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Jade_Emperor</t>
+  </si>
+  <si>
+    <t>Con khỉ nhà người lại tìm ta có chuyện gì đây?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Taibai_Jinxing</t>
+  </si>
+  <si>
+    <t>Không biết Đại Thánh tìm tôi có chuyện gì không?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Bodhi_Patriarch</t>
+  </si>
+  <si>
+    <t>Ngộ Không, người muốn học loại phép thuật gì?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Taishang_Laojun</t>
+  </si>
+  <si>
+    <t>Không biết Đại Thánh tới đây có việc gì không?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Third_Prince_Nezha</t>
+  </si>
+  <si>
+    <t>Xin chào Tôn Đại Thánh.</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Bull_Demon_ King</t>
+  </si>
+  <si>
+    <t>Người huynh đệ dạo này khỏe không?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Ta có thể giúp gì cho ngài?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Sha_Wujing</t>
+  </si>
+  <si>
+    <t>Đại sư huynh cứ để đệ trông coi hành lý cho.</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Zhu_Baije</t>
+  </si>
+  <si>
+    <t>Có phải yêu quá đến phải không đại sư huynh.</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Tang_SanZanng</t>
+  </si>
+  <si>
+    <t>Ngộ không, không được vô lễ.</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Little_White_Dragon</t>
+  </si>
+  <si>
+    <t>"Hí hí hí"</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Guanyin_Bodhisattva</t>
+  </si>
+  <si>
+    <t>Ngộ không sao ngươi không đi bảo vệ sự phụ lại đến đây tìm ta có chuyện gì không?</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Shakyamun_ Buddha</t>
+  </si>
+  <si>
+    <t>Con khí này lại đến rồi.</t>
+  </si>
+  <si>
+    <t>L1_D1_Default_Yanluo_Wang</t>
+  </si>
+  <si>
+    <t>Đại Thánh tìm Tiểu Vương có việc gì thế?</t>
+  </si>
+  <si>
+    <t>UI_COOK</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Nấu Nướng</t>
   </si>
 </sst>
 </file>
@@ -3390,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,7 +4233,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>645</v>
       </c>
@@ -4112,7 +4241,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>646</v>
       </c>
@@ -4120,12 +4249,23 @@
         <v>647</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>649</v>
       </c>
       <c r="B67" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>723</v>
+      </c>
+      <c r="B68" t="s">
+        <v>724</v>
+      </c>
+      <c r="C68" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -4135,15 +4275,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
@@ -4223,6 +4363,162 @@
       </c>
       <c r="C7" t="s">
         <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B9" t="s">
+        <v>687</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>695</v>
+      </c>
+      <c r="C12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>697</v>
+      </c>
+      <c r="C13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>701</v>
+      </c>
+      <c r="C15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C16" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>713</v>
+      </c>
+      <c r="C21" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C22" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>717</v>
+      </c>
+      <c r="C23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>719</v>
+      </c>
+      <c r="C24" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>721</v>
+      </c>
+      <c r="C25" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -3153,9 +3153,6 @@
     <t>L1_D1_Default_Guanyin_Bodhisattva</t>
   </si>
   <si>
-    <t>Ngộ không sao ngươi không đi bảo vệ sự phụ lại đến đây tìm ta có chuyện gì không?</t>
-  </si>
-  <si>
     <t>L1_D1_Default_Shakyamun_ Buddha</t>
   </si>
   <si>
@@ -3175,6 +3172,9 @@
   </si>
   <si>
     <t>Nấu Nướng</t>
+  </si>
+  <si>
+    <t>Ngộ không sao ngươi không đi bảo vệ sự phụ lại đến đây.</t>
   </si>
 </sst>
 </file>
@@ -3521,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>722</v>
+      </c>
+      <c r="B68" t="s">
         <v>723</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>724</v>
-      </c>
-      <c r="C68" t="s">
-        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -4277,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,23 +4502,23 @@
         <v>717</v>
       </c>
       <c r="C23" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>718</v>
+      </c>
+      <c r="C24" t="s">
         <v>719</v>
-      </c>
-      <c r="C24" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C25" t="s">
         <v>721</v>
-      </c>
-      <c r="C25" t="s">
-        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="760">
   <si>
     <t>ID</t>
   </si>
@@ -3123,9 +3123,6 @@
     <t>L1_D1_Default_Dragon_king_Eatern_Sea</t>
   </si>
   <si>
-    <t>Ta có thể giúp gì cho ngài?</t>
-  </si>
-  <si>
     <t>L1_D1_Default_Sha_Wujing</t>
   </si>
   <si>
@@ -3175,6 +3172,111 @@
   </si>
   <si>
     <t>Ngộ không sao ngươi không đi bảo vệ sự phụ lại đến đây.</t>
+  </si>
+  <si>
+    <t>L1_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L1_D3_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Dia_Choice_01_Default_Wukong</t>
+  </si>
+  <si>
+    <t>Ta muốn mượn chỗ ngài một món binh khí vừa tay.</t>
+  </si>
+  <si>
+    <t>Dia_Choice_02_Default_Wukong</t>
+  </si>
+  <si>
+    <t>Dia_Choice_03_Default_Wukong</t>
+  </si>
+  <si>
+    <t>Tạm biệt.</t>
+  </si>
+  <si>
+    <t>L1_D4_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Ta tiện đường ghé qua đây xin chén rươu uống.</t>
+  </si>
+  <si>
+    <t>Đại Thánh đi thong thả.</t>
+  </si>
+  <si>
+    <t>L2_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L3_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>May đâu mang đại đao ra đây.</t>
+  </si>
+  <si>
+    <t>L4_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L5_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Cho khiêng chĩa ba đến. Chĩa ba này nặng ba ngàn sáu trăm cân rất là nặng đó ngài.</t>
+  </si>
+  <si>
+    <t>L6_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Dẩu mấy trăm cân mà ta cầm còn nhẹ tay, chưa vừa ý ta.</t>
+  </si>
+  <si>
+    <t>L7_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Khiêng cây Phương Thiên Họa Kích nặng tới bẩy ngàn hai trăm cân lên đây.</t>
+  </si>
+  <si>
+    <t>L8_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L9_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L10_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L11_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>L12_D2_Default_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Ta đâu có nhiều đâu cho ngài mượn.</t>
+  </si>
+  <si>
+    <t>Haha, ta đã có vũ khí mới rồi.</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Còn nhẹ lắm chưa dùng được.|Nơi Long vương có nhiều bửu bối, tiếng đồn khắp bốn phương. Vậy quí vương cho người khiêng ra, dù đắc giá mấy, ta cũng xin trả.</t>
+  </si>
+  <si>
+    <t>Hơ, Đây là khối sát thần Định Hải của ta ngài không thể lấy được.</t>
+  </si>
+  <si>
+    <t>Wow, Hơi to đấy, nhỏ lại một chút thì tuyệt. | Ủa| Nhỏ lại đi, ngắn lại một chút, nhỏ thêm tí nữa. Ú! Tuyệt.</t>
+  </si>
+  <si>
+    <t>Ai cũng biết chỗ ngài nhiều châu báu ngài đừng có keo kiệt thế. Hả lão Long Vương</t>
+  </si>
+  <si>
+    <t>Kính chào thượng tiên, chẳng hay thượng tiên đến có chuyện gì thế?</t>
+  </si>
+  <si>
+    <t>Ta không thích đánh đao, phiền vương cung cho đổi thứ khác.</t>
+  </si>
+  <si>
+    <t>Nơi Long cung này không còn vật nào nặng hơn Phương Thiên Họa Kích. Thật tình vậy, mong thượng tiên xét cho. |…|Chỗ ta có một cây sắt bao người cũng không khiêng được. Mời thượng tiên đi với ta xem.| Nếu ngài cầm được xin tặng ngày làm binh khí.|Thượng tiên hãy nhìn xem vật phát ra ánh kia kìa.</t>
   </si>
 </sst>
 </file>
@@ -4259,13 +4361,13 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>721</v>
+      </c>
+      <c r="B68" t="s">
         <v>722</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>723</v>
-      </c>
-      <c r="C68" t="s">
-        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -4275,15 +4377,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
@@ -4462,67 +4564,204 @@
         <v>707</v>
       </c>
       <c r="C18" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>708</v>
+      </c>
+      <c r="C19" t="s">
         <v>709</v>
-      </c>
-      <c r="C19" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C20" t="s">
         <v>711</v>
-      </c>
-      <c r="C20" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>712</v>
+      </c>
+      <c r="C21" t="s">
         <v>713</v>
-      </c>
-      <c r="C21" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C22" t="s">
         <v>715</v>
-      </c>
-      <c r="C22" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C24" t="s">
         <v>718</v>
-      </c>
-      <c r="C24" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>719</v>
+      </c>
+      <c r="C25" t="s">
         <v>720</v>
       </c>
-      <c r="C25" t="s">
-        <v>721</v>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>727</v>
+      </c>
+      <c r="C26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>729</v>
+      </c>
+      <c r="C27" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>730</v>
+      </c>
+      <c r="C28" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>732</v>
+      </c>
+      <c r="C29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>725</v>
+      </c>
+      <c r="C30" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>726</v>
+      </c>
+      <c r="C31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>735</v>
+      </c>
+      <c r="C32" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>736</v>
+      </c>
+      <c r="C33" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>738</v>
+      </c>
+      <c r="C34" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>739</v>
+      </c>
+      <c r="C35" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>741</v>
+      </c>
+      <c r="C36" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>743</v>
+      </c>
+      <c r="C37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>745</v>
+      </c>
+      <c r="C38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>746</v>
+      </c>
+      <c r="C39" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>747</v>
+      </c>
+      <c r="C40" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>748</v>
+      </c>
+      <c r="C41" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>749</v>
+      </c>
+      <c r="C42" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="767">
   <si>
     <t>ID</t>
   </si>
@@ -3277,6 +3277,27 @@
   </si>
   <si>
     <t>Nơi Long cung này không còn vật nào nặng hơn Phương Thiên Họa Kích. Thật tình vậy, mong thượng tiên xét cho. |…|Chỗ ta có một cây sắt bao người cũng không khiêng được. Mời thượng tiên đi với ta xem.| Nếu ngài cầm được xin tặng ngày làm binh khí.|Thượng tiên hãy nhìn xem vật phát ra ánh kia kìa.</t>
+  </si>
+  <si>
+    <t>Default_QuestLine_Name</t>
+  </si>
+  <si>
+    <t>Default_QuestLine_Description</t>
+  </si>
+  <si>
+    <t>Đi tìm bảo bối</t>
+  </si>
+  <si>
+    <t>Đông Hải Long Cung</t>
+  </si>
+  <si>
+    <t>Default_Quest_Name</t>
+  </si>
+  <si>
+    <t>Default_Quest_Description</t>
+  </si>
+  <si>
+    <t>Đông Hải Long Cung có vố sô báu vật, vũ khí hãy mượn ở đó một món bảo bối để dùng.</t>
   </si>
 </sst>
 </file>
@@ -4377,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4757,6 +4778,38 @@
       </c>
       <c r="C42" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>760</v>
+      </c>
+      <c r="C43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>761</v>
+      </c>
+      <c r="C44" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>764</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>765</v>
+      </c>
+      <c r="C46" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="769">
   <si>
     <t>ID</t>
   </si>
@@ -3298,6 +3298,12 @@
   </si>
   <si>
     <t>Đông Hải Long Cung có vố sô báu vật, vũ khí hãy mượn ở đó một món bảo bối để dùng.</t>
+  </si>
+  <si>
+    <t>L_Deafult_Dragon_king_Eatern_Sea</t>
+  </si>
+  <si>
+    <t>Đại Thánh đi đâu thế?</t>
   </si>
 </sst>
 </file>
@@ -4398,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,6 +4816,14 @@
       </c>
       <c r="C46" t="s">
         <v>766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>767</v>
+      </c>
+      <c r="C47" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Localizations.xlsx
+++ b/Assets/Data/Localizations.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="Narrative " sheetId="2" r:id="rId2"/>
     <sheet name="STR" sheetId="3" r:id="rId3"/>
+    <sheet name="Battle" sheetId="4" r:id="rId4"/>
+    <sheet name="Effect" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="825">
   <si>
     <t>ID</t>
   </si>
@@ -3304,6 +3306,174 @@
   </si>
   <si>
     <t>Đại Thánh đi đâu thế?</t>
+  </si>
+  <si>
+    <t>Wukong_FirstSkil_Name</t>
+  </si>
+  <si>
+    <t>Wukong_SecondSkill_Name</t>
+  </si>
+  <si>
+    <t>Wukong_FirstSkil_Des</t>
+  </si>
+  <si>
+    <t>Wukong_SecondSkill_Des</t>
+  </si>
+  <si>
+    <t>Wukong_ThirdSkill_Name</t>
+  </si>
+  <si>
+    <t>Wukong_ThirdSkill_Des</t>
+  </si>
+  <si>
+    <t>Thiết Bảng Ngàn Cân</t>
+  </si>
+  <si>
+    <t>Phân Thân</t>
+  </si>
+  <si>
+    <t>Đòn Tàn Khốc</t>
+  </si>
+  <si>
+    <t>Gây 60% ST Tấn Công cho toàn bộ kẻ định đồng thời hồi 30% ST gây ra.</t>
+  </si>
+  <si>
+    <t>Gây 180% ST Tấn Công cho kẻ định, kèm thêm Giảm Phòng Thù cho mục tiêu, duy trì 2 hiệp</t>
+  </si>
+  <si>
+    <t>Gây ST bằng 80% Tấn Công cho 1 kẻ địch</t>
+  </si>
+  <si>
+    <t>DEBUFF_DEF_NAME</t>
+  </si>
+  <si>
+    <t>Giảm Phòng Thủ</t>
+  </si>
+  <si>
+    <t>DEBUFF_DEF_DES</t>
+  </si>
+  <si>
+    <t>Miễn Dịch</t>
+  </si>
+  <si>
+    <t>RESIST_DEBUFF_NAME</t>
+  </si>
+  <si>
+    <t>RESIST_DEBUFF_DES</t>
+  </si>
+  <si>
+    <t>Không bị ảnh hưởng bởi tất cả các hiệu ứng suy yếu.</t>
+  </si>
+  <si>
+    <t>BUFF_DEF_NAME</t>
+  </si>
+  <si>
+    <t>BUFF_DEF_DES</t>
+  </si>
+  <si>
+    <t>Tăng Phòng Thủ</t>
+  </si>
+  <si>
+    <t>Không thể cường hóa</t>
+  </si>
+  <si>
+    <t>DEBUFF_RECEIVE_NAME</t>
+  </si>
+  <si>
+    <t>DEBUFF_RECEIVE_DES</t>
+  </si>
+  <si>
+    <t>Không thể nhận được bất kì hiệu ứng cường hóa.</t>
+  </si>
+  <si>
+    <t>Tăng Tấn Công</t>
+  </si>
+  <si>
+    <t>BUFF_ATTACK_NAME</t>
+  </si>
+  <si>
+    <t>BUFF_ATTACK_DES</t>
+  </si>
+  <si>
+    <t>DEBUFF_ATTACK_NAME</t>
+  </si>
+  <si>
+    <t>DEBUFF_ATTACK_DES</t>
+  </si>
+  <si>
+    <t>Giảm Tấn Công</t>
+  </si>
+  <si>
+    <t>DEBUFF_HEAL_NAME</t>
+  </si>
+  <si>
+    <t>DEBUFF_HEAL_DES</t>
+  </si>
+  <si>
+    <t>Giảm Phòng Thủ {0}%.</t>
+  </si>
+  <si>
+    <t>Phòng Thủ Tăng {0}%.</t>
+  </si>
+  <si>
+    <t>Tấn Công tăng {0}%.</t>
+  </si>
+  <si>
+    <t>Tấn Công giảm {0}%.</t>
+  </si>
+  <si>
+    <t>Choáng</t>
+  </si>
+  <si>
+    <t>DEBUFF_STUN_NAME</t>
+  </si>
+  <si>
+    <t>DEBUFF_STUN_DES</t>
+  </si>
+  <si>
+    <t>Không thể hành động trong thời gian duy trì hiệp.</t>
+  </si>
+  <si>
+    <t>Cấm Điều Trị</t>
+  </si>
+  <si>
+    <t>Không thể nhận hiệu ứng hồi máu.</t>
+  </si>
+  <si>
+    <t>STR_SLILL_LEVEL_NAME</t>
+  </si>
+  <si>
+    <t>Nhân vật Lv.{0}</t>
+  </si>
+  <si>
+    <t>STR_ST_SKIL_DES</t>
+  </si>
+  <si>
+    <t>ST tăng tới {0} Tấn Công.</t>
+  </si>
+  <si>
+    <t>STR_CRIT_COOLDOWN_ULTIMATE</t>
+  </si>
+  <si>
+    <t>Nếu kĩ năng này Bạo Kích, hiệp hồi chiêu của {0} -1.</t>
+  </si>
+  <si>
+    <t>STR_DMG_CRIT</t>
+  </si>
+  <si>
+    <t>Nếu kĩ năng này Bạo Kích, ST tăng {0}.</t>
+  </si>
+  <si>
+    <t>STR_SKILL_COOLDOWN</t>
+  </si>
+  <si>
+    <t>Hiệp hồi chiêu -1.</t>
+  </si>
+  <si>
+    <t>STR_RESIST_DEFBUFF</t>
+  </si>
+  <si>
+    <t>Banr thân được Miễn Dịch, duy trì 2 hiệp.</t>
   </si>
 </sst>
 </file>
@@ -4406,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -4834,10 +5004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6670,8 +6840,293 @@
         <v>23</v>
       </c>
     </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>813</v>
+      </c>
+      <c r="C167" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>815</v>
+      </c>
+      <c r="C168" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>817</v>
+      </c>
+      <c r="C169" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>819</v>
+      </c>
+      <c r="C170" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>821</v>
+      </c>
+      <c r="C171" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>823</v>
+      </c>
+      <c r="C172" t="s">
+        <v>824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>786</v>
+      </c>
+      <c r="C5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>792</v>
+      </c>
+      <c r="C8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C14" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C15" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>808</v>
+      </c>
+      <c r="C16" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>809</v>
+      </c>
+      <c r="C17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>